--- a/biology/Zoologie/Cordulia_aenea/Cordulia_aenea.xlsx
+++ b/biology/Zoologie/Cordulia_aenea/Cordulia_aenea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cordulia aenea, la Cordulie bronzée, est une espèce d'insectes odonates anisoptères (libellule) appartenant à la famille des corduliidés.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurasiatique ; en Europe, de la France (sauf le sud) à la Finlande (sauf l'extrême nord) et à la Russie ; les populations sud-européennes sont plus fragmentées : elles fréquentent les lacs de montagne jusqu'à 2 000 m environ[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurasiatique ; en Europe, de la France (sauf le sud) à la Finlande (sauf l'extrême nord) et à la Russie ; les populations sud-européennes sont plus fragmentées : elles fréquentent les lacs de montagne jusqu'à 2 000 m environ.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Longueur du corps : 47 à 55 mm.
 Abdomen du mâle élargi en massue au niveau des segments S7 et S8 ; dans les deux sexes, présence de taches claires inférieures (plus blanches chez la femelle).
@@ -550,7 +566,7 @@
 Yeux verts (comme ceux des Somatochlora).
 Taches jaunes de la face absentes sur le front (contrairement aux Somatochlora qui en sont pourvus).
 Base des ailes jaune-ochracé (tache plus étendue aux ailes inférieures).
-D'après les odonatologues[2], l'observation de l'animal capturé peut mener à une identification plus sûre.
+D'après les odonatologues, l'observation de l'animal capturé peut mener à une identification plus sûre.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce préfère les eaux stagnantes en milieu boisé mais on la trouve parfois aux abords de cours d'eau lents, de canaux, etc.
 </t>
